--- a/biology/Zoologie/Hippopotamus_melitensis/Hippopotamus_melitensis.xlsx
+++ b/biology/Zoologie/Hippopotamus_melitensis/Hippopotamus_melitensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippopotame nain de Malte
-L'Hippopotame nain de Malte (Hippopotamus melitensis) est un hippopotame du Pléistocène dont les restes fossiles ont été trouvés sur les iles de Sicile (grotte d'Acquedolci) et de Malte qui, aux époques glaciaires, ne formaient une seule terre, car le niveau des mers était plus bas qu'à présent[2].
+L'Hippopotame nain de Malte (Hippopotamus melitensis) est un hippopotame du Pléistocène dont les restes fossiles ont été trouvés sur les iles de Sicile (grotte d'Acquedolci) et de Malte qui, aux époques glaciaires, ne formaient une seule terre, car le niveau des mers était plus bas qu'à présent.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[3],[4],[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Nanisme insulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fin de la dernière glaciation et la fonte des glaces firent remonter le niveau de la mer, séparant la Sicile et Malte. La limitation des ressources a produit une pression de sélection naturelle en faveur d'une réduction de la taille de l'espèce. Cette espèce endémique de ces îles était donc beaucoup plus petite que les espèces continentales comme le montrent les fossiles : l'animal adulte n'atteignait pas 1 mètre au garrot. 
 </t>
